--- a/resource/wyx.xlsx
+++ b/resource/wyx.xlsx
@@ -19,81 +19,234 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>SKU</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>链接</t>
+    <t xml:space="preserve">京东链接 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://item.jd.com/6526092.html</t>
-  </si>
-  <si>
-    <t>https://item.jd.com/100009138819.html</t>
-  </si>
-  <si>
-    <t>https://item.jd.com/8963475.html</t>
-  </si>
-  <si>
-    <t>https://i-item.jd.com/100000274575.html</t>
-  </si>
-  <si>
-    <t>https://i-item.jd.com/7360597.html</t>
-  </si>
-  <si>
-    <t>https://i-item.jd.com/100007048218.html</t>
-  </si>
-  <si>
-    <t>https://i-item.jd.com/100004119473.html</t>
-  </si>
-  <si>
-    <t>https://i-item.jd.com/100007048220.html</t>
-  </si>
-  <si>
-    <t>https://i-item.jd.com/100007048212.html</t>
-  </si>
-  <si>
-    <t>https://i-item.jd.com/100003491666.html</t>
-  </si>
-  <si>
-    <t>https://i-item.jd.com/100000112457.html</t>
-  </si>
-  <si>
-    <t>https://i-item.jd.com/100003491660.html</t>
-  </si>
-  <si>
-    <t>https://i-item.jd.com/100017314584.html</t>
-  </si>
-  <si>
-    <t>https://i-item.jd.com/6000681.html</t>
-  </si>
-  <si>
-    <t>https://i-item.jd.com/54683762701.html</t>
-  </si>
-  <si>
-    <t>https://i-item.jd.com/64677532089.html</t>
-  </si>
-  <si>
-    <t>https://i-item.jd.com/55663551158.html</t>
-  </si>
-  <si>
-    <t>https://i-item.jd.com/100013792142.html</t>
-  </si>
-  <si>
-    <t>https://item.jd.com/100010444286.html</t>
-  </si>
-  <si>
-    <t>https://i-item.jd.com/100012402716.html</t>
+    <t>https://item.jd.com/68762747468.html</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/68762747469.html#crumb-wrap</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/68762839115.html</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/68762839116.html#crumb-wrap</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/68762839117.html#crumb-wrap</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/68762839118.html#crumb-wrap</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/68762839119.html#crumb-wrap</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/68762839120.html#crumb-wrap</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/68809753187.html</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/68809753188.html#crumb-wrap</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/68809908421.html</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/68809908422.html#crumb-wrap</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/68809908423.html#crumb-wrap</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/68809908424.html#crumb-wrap</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/68809908425.html#crumb-wrap</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/68810088235.html</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/68810357046.html</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/68810433241.html</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/68810433242.html#crumb-wrap</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/68810433243.html#crumb-wrap</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/68955452758.html</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/68955557778.html</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/68955586527.html</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/68955667099.html</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/68955809063.html</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/68955809064.html#crumb-wrap</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/68955809065.html#crumb-wrap</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/68955809066.html#crumb-wrap</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/68956027341.html</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/68956027342.html#crumb-wrap</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/68956027343.html#crumb-wrap</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/68956027344.html#crumb-wrap</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/68956027345.html#crumb-wrap</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/68956027346.html#crumb-wrap</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/68956027347.html#crumb-wrap</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/68956181265.html</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/10025462364103.html#crumb-wrap</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/68956181266.html#crumb-wrap</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/68956181267.html#crumb-wrap</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/68956411243.html</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/68956411244.html#crumb-wrap</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/68956663366.html</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/68410742213.html</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/68956703257.html</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/69308167152.html</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/69309149602.html</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/69309149605.html#crumb-wrap</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/69309149604.html#crumb-wrap</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/69309149603.html#crumb-wrap</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/69873958692.html</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/69873958693.html#crumb-wrap</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/69873958694.html#crumb-wrap</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/69874143126.html</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/69874143127.html#crumb-wrap</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/69874255381.html</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/69874255382.html#crumb-wrap</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/69874255383.html#crumb-wrap</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/69874318039.html</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/69874318040.html#crumb-wrap</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/69874383182.html</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/69874383183.html#crumb-wrap</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/69874475809.html#crumb-wrap</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/69874475808.html#crumb-wrap</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/69874475810.html#crumb-wrap</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/69874507844.html</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/69871986232.html</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/69871986233.html</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/69881202307.html</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/10020312224208.html</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/10020311889485.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://item.jd.com/71568027313.html#crumb-wrap </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,14 +261,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -125,7 +270,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -133,29 +278,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -436,15 +564,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A16" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -457,174 +585,575 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1100992187</v>
-      </c>
-      <c r="B2" s="1" t="s">
+        <v>1100992027</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1100992188</v>
-      </c>
-      <c r="B3" s="1" t="s">
+        <v>1100992026</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1100992189</v>
-      </c>
-      <c r="B4" s="1" t="s">
+        <v>1100992025</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1100992190</v>
-      </c>
-      <c r="B5" s="2" t="s">
+        <v>1100992024</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1100992191</v>
-      </c>
-      <c r="B6" s="2" t="s">
+        <v>1100992023</v>
+      </c>
+      <c r="B6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>7130019057</v>
-      </c>
-      <c r="B7" s="2" t="s">
+        <v>1100992022</v>
+      </c>
+      <c r="B7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7130019058</v>
-      </c>
-      <c r="B8" s="2" t="s">
+        <v>1100992021</v>
+      </c>
+      <c r="B8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>7130019059</v>
-      </c>
-      <c r="B9" s="2" t="s">
+        <v>1100992020</v>
+      </c>
+      <c r="B9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>7130019060</v>
-      </c>
-      <c r="B10" s="2" t="s">
+        <v>1100992019</v>
+      </c>
+      <c r="B10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>7130019064</v>
-      </c>
-      <c r="B11" s="2" t="s">
+        <v>1100992018</v>
+      </c>
+      <c r="B11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>7130019065</v>
-      </c>
-      <c r="B12" s="2" t="s">
+        <v>1100992017</v>
+      </c>
+      <c r="B12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>7130019066</v>
-      </c>
-      <c r="B13" s="2" t="s">
+        <v>1100992016</v>
+      </c>
+      <c r="B13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>7130019067</v>
-      </c>
-      <c r="B14" s="2" t="s">
+        <v>1100992015</v>
+      </c>
+      <c r="B14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>7130019068</v>
-      </c>
-      <c r="B15" s="2" t="s">
+        <v>1100992014</v>
+      </c>
+      <c r="B15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>7130019069</v>
-      </c>
-      <c r="B16" s="2" t="s">
+        <v>1100992013</v>
+      </c>
+      <c r="B16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>7130019070</v>
-      </c>
-      <c r="B17" s="2" t="s">
+        <v>1100992012</v>
+      </c>
+      <c r="B17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>7130019071</v>
-      </c>
-      <c r="B18" s="2" t="s">
+        <v>1100992011</v>
+      </c>
+      <c r="B18" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>7130019072</v>
-      </c>
-      <c r="B19" s="2" t="s">
+        <v>1100992010</v>
+      </c>
+      <c r="B19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>1100992192</v>
-      </c>
-      <c r="B20" s="1" t="s">
+        <v>1100992009</v>
+      </c>
+      <c r="B20" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>1100992192</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>20</v>
+        <v>1100992008</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>7130019073</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>21</v>
+        <v>1100992007</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1100992006</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1100992005</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1100992004</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1100992003</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1100992002</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1100992000</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1100992001</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1100991999</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1100991998</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1100991997</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1100991996</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1100991995</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1100991994</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1100991993</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1100991992</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1100991991</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1100991990</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1100991989</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1100991988</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1100991987</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1100991986</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1100991985</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1100991984</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1100991983</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1100991982</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1100991981</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1100991980</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1100991979</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1100991978</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1100991977</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1100991976</v>
+      </c>
+      <c r="B53" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1100991975</v>
+      </c>
+      <c r="B54" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1100991974</v>
+      </c>
+      <c r="B55" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1100991973</v>
+      </c>
+      <c r="B56" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1100991972</v>
+      </c>
+      <c r="B57" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1100991971</v>
+      </c>
+      <c r="B58" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1100991970</v>
+      </c>
+      <c r="B59" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>1100991969</v>
+      </c>
+      <c r="B60" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>1100991968</v>
+      </c>
+      <c r="B61" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1100991967</v>
+      </c>
+      <c r="B62" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1100991966</v>
+      </c>
+      <c r="B63" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>1100991965</v>
+      </c>
+      <c r="B64" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1100991964</v>
+      </c>
+      <c r="B65" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>1100991963</v>
+      </c>
+      <c r="B66" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1100991962</v>
+      </c>
+      <c r="B67" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>1100991961</v>
+      </c>
+      <c r="B68" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>1100991960</v>
+      </c>
+      <c r="B69" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>1100991959</v>
+      </c>
+      <c r="B70" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1100991958</v>
+      </c>
+      <c r="B71" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>1100991957</v>
+      </c>
+      <c r="B72" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>